--- a/data/senales.xlsx
+++ b/data/senales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3498,6 +3498,7209 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1.1072</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>92</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2025-09-09 21:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>BTC-USD</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1.12192</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>90</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>2025-09-09 21:51:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1.18402</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>82</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2025-09-09 21:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>USD/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1.1657</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>95</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:01:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>EUR/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1.18095</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>80</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:02:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>EUR/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1.11304</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>96</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>EUR/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1.1525</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>92</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:15:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>EUR/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1.19222</v>
+      </c>
+      <c r="K71" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>94</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>EUR/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1.14431</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>82</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>EUR/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1.19696</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>95</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1.13066</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>88</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1.18661</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>87</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:26:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1.12441</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>95</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:26:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>AUD/CAD OTC</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1.15364</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>96</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:28:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1.10962</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>93</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>82</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:42:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1.18738</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>88</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:44:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1.16725</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>95</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>ORO</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="K82" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>90</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:47:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>ORO</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1.19745</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>86</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:48:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>ORO</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1.14507</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>89</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>1.19026</v>
+      </c>
+      <c r="K85" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>81</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:49:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1.12598</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>86</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:55:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1.10636</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>98</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:59:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1.15528</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>90</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:00:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1.15794</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>88</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:01:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1.12627</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>88</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:05:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1.10982</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>86</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:06:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1.17306</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>93</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:08:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>EUR/USD OTC</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1.1659</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>89</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>EUR/USD OTC</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1.18757</v>
+      </c>
+      <c r="K94" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>98</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1.16291</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>80</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>CAD/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1.18562</v>
+      </c>
+      <c r="K96" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>89</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:26:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>1.18756</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>84</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:27:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1.19749</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>98</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:29:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1.14021</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>98</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:31:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1.13274</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>82</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:32:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>EUR/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1.19463</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>96</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:34:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1.18334</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>83</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:37:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1.1264</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>84</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:39:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1.14702</v>
+      </c>
+      <c r="K104" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>95</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>2025-09-09 23:39:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>1.1938</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>98</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:29:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1.10365</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>97</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:31:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>1.13055</v>
+      </c>
+      <c r="K107" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>89</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:33:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>1.10762</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>95</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:33:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>1.11674</v>
+      </c>
+      <c r="K109" t="n">
+        <v>4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>92</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:35:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>1.12686</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>86</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:37:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>1.11002</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>80</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:37:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>1.11689</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>91</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:37:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>1.15686</v>
+      </c>
+      <c r="K113" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>82</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:38:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>1.1064</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>82</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:39:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>1.19582</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>93</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:40:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>1.12227</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>85</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:40:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>1.10605</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>83</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:40:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>1.19172</v>
+      </c>
+      <c r="K118" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>90</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:42:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>1.12326</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>95</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:42:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>1.16601</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>96</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:43:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>1.12417</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>83</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:44:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>1.11027</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>90</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:47:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>1.19444</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>84</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:47:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>1.18187</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>88</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:49:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>1.11304</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>86</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:49:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>1.15258</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>87</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>1.1248</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>97</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:52:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>1.13576</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>89</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:54:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>1.17365</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>86</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:54:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>1.17912</v>
+      </c>
+      <c r="K130" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>81</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:54:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>1.10904</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>83</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>2025-09-10 01:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>1.15303</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>84</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>2025-09-10 02:12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>1.15158</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>98</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>2025-09-10 02:15:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>1.1093</v>
+      </c>
+      <c r="K134" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>89</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>2025-09-10 02:16:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1.11935</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>80</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:10:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>1.15077</v>
+      </c>
+      <c r="K136" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>88</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:13:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>1.1155</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>85</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:13:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1.16007</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>95</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:15:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>1.15729</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>85</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>1.17083</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>98</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:18:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>EUR/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>1.16157</v>
+      </c>
+      <c r="K141" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>96</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:20:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>1.1253</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>92</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>1.17244</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>89</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>1.1496</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>93</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>LBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>1.10663</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>94</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>ORO</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="K146" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>90</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:33:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>ORO</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>1.12675</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>88</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:33:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>AUD/CAD OTC</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>1.17543</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>83</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:37:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>1.12913</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>98</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:37:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>1.1362</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>81</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>AUD/CAD OTC</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>1.11439</v>
+      </c>
+      <c r="K151" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>92</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:38:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>AUD/CAD OTC</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>1.11646</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>91</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:39:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>1.16183</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>83</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>AUD/CAD OTC</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>1.16249</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>95</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>1.19566</v>
+      </c>
+      <c r="K155" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>84</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>1.15792</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>96</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:41:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>1.14941</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>95</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:43:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>1.10005</v>
+      </c>
+      <c r="K158" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>98</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>1.13156</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>92</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:45:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>AUD/CAD OTC</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>1.14951</v>
+      </c>
+      <c r="K160" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>84</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:45:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>1.11656</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>88</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:46:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>AUD/CAD OTC</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>1.19978</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>97</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:46:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1.14876</v>
+      </c>
+      <c r="K163" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>87</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:46:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>1.1621</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>87</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:49:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>1.17714</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>81</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:50:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>1.12568</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>89</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:50:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>1.10326</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>96</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:51:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>1.12288</v>
+      </c>
+      <c r="K168" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>80</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:52:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>EUR/USD OTC</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>1.14469</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>96</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:53:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>EUR/USD OTC</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>1.16311</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>96</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:54:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>1.18267</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>80</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:54:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>1.1606</v>
+      </c>
+      <c r="K172" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>97</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:54:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>EUR/USD OTC</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>1.12302</v>
+      </c>
+      <c r="K173" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>89</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:56:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>1.1832</v>
+      </c>
+      <c r="K174" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>97</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>EUR/USD OTC</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>1.14022</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>95</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>2025-09-10 04:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>1.14782</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>82</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>1.15968</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>89</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:02:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>1.17443</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>88</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:03:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>EUR/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>1.13448</v>
+      </c>
+      <c r="K179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>89</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:06:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>1.18237</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>84</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:06:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>1.16732</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>91</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:06:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>1.1489</v>
+      </c>
+      <c r="K182" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>83</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:07:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>1.14366</v>
+      </c>
+      <c r="K183" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>89</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:08:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>1.14249</v>
+      </c>
+      <c r="K184" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>90</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:09:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>USD/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>1.13075</v>
+      </c>
+      <c r="K185" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>87</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:15:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>USD/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>1.12042</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>94</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:16:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>USD/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>1.17562</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>94</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>USD/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>1.14054</v>
+      </c>
+      <c r="K188" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>84</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>USD/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>1.17934</v>
+      </c>
+      <c r="K189" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>84</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>USD/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>1.17849</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>92</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:28:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>USD/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>1.19497</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>84</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:29:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>USD/JPY OTC</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>1.14115</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>88</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:31:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>GBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>1.1951</v>
+      </c>
+      <c r="K193" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>90</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:32:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>1.18762</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>84</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:33:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>1.17667</v>
+      </c>
+      <c r="K195" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>95</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:35:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>1.16486</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>82</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:45:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>1.13273</v>
+      </c>
+      <c r="K197" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>96</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:47:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>1.1155</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>93</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:48:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>1.15558</v>
+      </c>
+      <c r="K199" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>84</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:52:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>1.10678</v>
+      </c>
+      <c r="K200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>88</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:56:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>1.15021</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>94</v>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>2025-09-10 05:58:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>1.14132</v>
+      </c>
+      <c r="K202" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>85</v>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>2025-09-10 06:00:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>1.17318</v>
+      </c>
+      <c r="K203" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>82</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>2025-09-10 06:02:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>1.11838</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>97</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>2025-09-10 06:05:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>AUD/USD OTC</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>1.11454</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>94</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>Confirmación con Bollinger</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>2025-09-10 06:05:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>EUR/USD OTC</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>1.16692</v>
+      </c>
+      <c r="K206" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>98</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>2025-09-10 06:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>GBP/USD OTC</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>1.18949</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>87</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>2025-09-10 06:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>1.12424</v>
+      </c>
+      <c r="K208" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>91</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>2025-09-10 06:36:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>BTC-USD</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>1.11589</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>96</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>Basado en RSI y Soportes</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>2025-09-10 06:36:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>SP500</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>1.17625</v>
+      </c>
+      <c r="K210" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>🟢 COMPRAR (BUY)</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>90</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>Señal reforzada por tendencia</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>2025-09-10 06:38:14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/senales.xlsx
+++ b/data/senales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q210"/>
+  <dimension ref="A1:Q211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10701,6 +10701,55 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>EUR/CHF OTC</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>1.15426</v>
+      </c>
+      <c r="K211" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>🔴 VENDER (SELL)</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>93</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Contexto favorable por velas</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:33:55</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
